--- a/Sesion11/Clase 11 Ejercicios Regresión.xlsx
+++ b/Sesion11/Clase 11 Ejercicios Regresión.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/sd_solano_uniandes_edu_co/Documents/Colsubsidio/1_Clases/3_Avanzada_ML/Semana 4/Clase 12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nib1l\Documents\Andes_ADDBD\Sesion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19452" documentId="8_{255375F0-639A-415A-8BEF-82B3029A6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DB667D-E35B-46AB-938E-78F6B08ECCCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40E915-880C-40FF-A8B4-9025B63DECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9E4CEF4D-2973-414E-98D6-D4EEC4A78A74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9E4CEF4D-2973-414E-98D6-D4EEC4A78A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Ejercicio5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ejercicio2!$D$9:$D$28</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Ejercicio4!$C$4:$C$5</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">Ejercicio5!$C$4:$C$5</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
@@ -226,8 +227,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -340,20 +342,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -366,7 +368,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,28 +394,28 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -420,7 +424,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -481,7 +485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -774,7 +778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -812,7 +816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1867859344"/>
@@ -891,7 +895,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -929,7 +933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1867860784"/>
@@ -977,7 +981,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1253,6 +1257,20 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Ejercicio2!$A$9:$A$28</c:f>
@@ -1326,67 +1344,67 @@
             <c:numRef>
               <c:f>Ejercicio2!$C$9:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-16</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1533,7 +1551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880410672"/>
@@ -1612,7 +1630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1650,7 +1668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880408752"/>
@@ -1696,7 +1714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1733,7 +1751,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1809,7 +1827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1920,64 +1938,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,7 +2060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="833686176"/>
@@ -2101,7 +2119,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="833687136"/>
@@ -2143,7 +2161,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2180,7 +2198,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2529,7 +2547,7 @@
             <c:numRef>
               <c:f>Ejercicio3!$C$9:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-17.004761904761907</c:v>
@@ -2698,7 +2716,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2736,7 +2754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880410672"/>
@@ -2815,7 +2833,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2853,7 +2871,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880408752"/>
@@ -2899,7 +2917,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2936,7 +2954,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3285,7 +3303,7 @@
             <c:numRef>
               <c:f>Ejercicio4!$C$12:$C$31</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-17.157092751417409</c:v>
@@ -3454,7 +3472,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3492,7 +3510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880410672"/>
@@ -3571,7 +3589,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3609,7 +3627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880408752"/>
@@ -3655,7 +3673,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3692,7 +3710,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4041,7 +4059,7 @@
             <c:numRef>
               <c:f>Ejercicio5!$C$13:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -4210,7 +4228,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4248,7 +4266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880410672"/>
@@ -4327,7 +4345,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4365,7 +4383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1880408752"/>
@@ -4411,7 +4429,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4448,7 +4466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7820,6 +7838,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>740712</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>745542</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58499</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7AD9F4-5E8C-2170-B766-FF28098D9CD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8609190" y="1460983"/>
+            <a:ext cx="8640" cy="12600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Entrada de lápiz 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7AD9F4-5E8C-2170-B766-FF28098D9CD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8572470" y="1455759"/>
+              <a:ext cx="82080" cy="23049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8027,6 +8110,33 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-14T00:56:21.657"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1924 421 268,'0'-8'1232,"-1"1"-84,1 1-100,-1 0 797,1-1-597,-1 1-808</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8430,86 +8540,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DA522-5BBB-464A-975C-150AAF2DE678}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="15" t="s">
+    <row r="2" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6">
-        <f>D4-D5</f>
         <v>3</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8517,7 +8626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8526,7 +8635,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8535,7 +8644,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8544,7 +8653,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8553,7 +8662,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -8562,7 +8671,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8571,7 +8680,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -8580,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -8589,7 +8698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -8598,7 +8707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -8607,7 +8716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -8616,7 +8725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -8625,7 +8734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -8634,7 +8743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -8643,7 +8752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -8652,7 +8761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -8661,7 +8770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
@@ -8670,7 +8779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
@@ -8679,7 +8788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
@@ -8688,7 +8797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -8720,71 +8829,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0425B14-1163-41A2-83AF-AB50802E7F53}">
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="15" t="s">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>-19</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>-20</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(D9:D28)</f>
-        <v>-5</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -8801,7 +8910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8810,18 +8919,18 @@
       </c>
       <c r="C9" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D9">
         <f>B9-C9</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <f>_xlfn.VAR.P(D9:D18)</f>
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8830,14 +8939,14 @@
       </c>
       <c r="C10" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D28" si="0">B10-C10</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8846,14 +8955,14 @@
       </c>
       <c r="C11" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8862,14 +8971,14 @@
       </c>
       <c r="C12" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8878,14 +8987,14 @@
       </c>
       <c r="C13" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8894,14 +9003,14 @@
       </c>
       <c r="C14" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -8910,14 +9019,14 @@
       </c>
       <c r="C15" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -8926,14 +9035,14 @@
       </c>
       <c r="C16" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -8942,14 +9051,14 @@
       </c>
       <c r="C17" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -8958,18 +9067,18 @@
       </c>
       <c r="C18" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f>VAR(D18:D28)</f>
         <v>45.472727272727276</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -8978,14 +9087,14 @@
       </c>
       <c r="C19" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -8994,14 +9103,14 @@
       </c>
       <c r="C20" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -9010,14 +9119,14 @@
       </c>
       <c r="C21" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -9026,14 +9135,14 @@
       </c>
       <c r="C22" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -9042,14 +9151,14 @@
       </c>
       <c r="C23" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -9058,14 +9167,14 @@
       </c>
       <c r="C24" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -9074,14 +9183,14 @@
       </c>
       <c r="C25" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -9090,14 +9199,14 @@
       </c>
       <c r="C26" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -9106,14 +9215,14 @@
       </c>
       <c r="C27" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -9122,11 +9231,11 @@
       </c>
       <c r="C28" s="3">
         <f>$C$4+$C$5*Tabla2[[#This Row],[Clientes]]</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -9147,58 +9256,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8830FD7-EE44-42B5-977F-020394DA9942}">
   <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="15" t="s">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>-20</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>2.9952380952380944</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9206,12 +9314,12 @@
         <f>SUM(D9:D28)</f>
         <v>1.865174681370263E-13</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -9225,7 +9333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9241,7 +9349,7 @@
         <v>-0.99523809523809348</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9257,7 +9365,7 @@
         <v>-0.99047619047618873</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9273,7 +9381,7 @@
         <v>-0.98571428571428399</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -9289,7 +9397,7 @@
         <v>2.0190476190476225</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9305,7 +9413,7 @@
         <v>-1.9761904761904709</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9321,7 +9429,7 @@
         <v>1.028571428571432</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -9337,7 +9445,7 @@
         <v>-1.9666666666666615</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -9353,7 +9461,7 @@
         <v>1.0380952380952451</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -9369,7 +9477,7 @@
         <v>2.0428571428571516</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -9385,7 +9493,7 @@
         <v>2.0476190476190581</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -9401,7 +9509,7 @@
         <v>2.0523809523809646</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -9417,7 +9525,7 @@
         <v>5.7142857142864045E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -9433,7 +9541,7 @@
         <v>-0.93809523809522943</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -9449,7 +9557,7 @@
         <v>-1.9333333333333229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -9465,7 +9573,7 @@
         <v>7.1428571428583609E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -9481,7 +9589,7 @@
         <v>7.6190476190490131E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -9497,7 +9605,7 @@
         <v>-0.91904761904760335</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -9513,7 +9621,7 @@
         <v>-0.91428571428569683</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -9529,7 +9637,7 @@
         <v>-0.90952380952379031</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -9562,61 +9670,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143F0446-2087-4950-88F9-08FED580BC11}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="15" t="s">
+    <row r="2" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>-20.168365591992359</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>3.0112728405749492</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9624,13 +9732,13 @@
         <f>SUM(D12:D31)</f>
         <v>1.5319107857791892E-5</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9638,29 +9746,29 @@
         <f>SUM(E12:E31)</f>
         <v>40.865413552915221</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -9677,7 +9785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9707,7 +9815,7 @@
         <v>sergio david</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9727,7 +9835,7 @@
         <v>0.72962362471318221</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9747,7 +9855,7 @@
         <v>0.74900877358254647</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -9767,7 +9875,7 @@
         <v>4.5082934544765436</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9787,7 +9895,7 @@
         <v>3.5645387546938263</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -9807,7 +9915,7 @@
         <v>1.2116033375768436</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -9827,7 +9935,7 @@
         <v>3.6501794918171426</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -9847,7 +9955,7 @@
         <v>1.1624782955392858</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -9867,7 +9975,7 @@
         <v>4.2721170589600233</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -9887,7 +9995,7 @@
         <v>4.2256442414644857</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -9907,7 +10015,7 @@
         <v>4.1794255778382183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -9927,7 +10035,7 @@
         <v>1.0950477093182275E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
@@ -9947,7 +10055,7 @@
         <v>0.95683872508531198</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -9967,7 +10075,7 @@
         <v>3.9579279186303484</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15</v>
       </c>
@@ -9987,7 +10095,7 @@
         <v>5.285531830317792E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -10007,7 +10115,7 @@
         <v>1.439965729842526E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17</v>
       </c>
@@ -10027,7 +10135,7 @@
         <v>1.0470870140255899</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18</v>
       </c>
@@ -10047,7 +10155,7 @@
         <v>1.0702844709338042</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>19</v>
       </c>
@@ -10067,7 +10175,7 @@
         <v>1.0937360817112673</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -10104,68 +10212,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63E4CC5-7E0B-4B5A-AB2F-F9FC65FE150E}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="15" t="s">
+    <row r="2" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>-5</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>15</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -10181,7 +10289,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -10197,7 +10305,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -10213,7 +10321,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -10229,7 +10337,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10242,7 +10350,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10271,7 +10379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10307,7 +10415,7 @@
         <v>279.77499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -10343,7 +10451,7 @@
         <v>224.82499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10379,7 +10487,7 @@
         <v>175.875</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -10415,7 +10523,7 @@
         <v>113.425</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10451,7 +10559,7 @@
         <v>101.47499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10487,7 +10595,7 @@
         <v>56.024999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -10523,7 +10631,7 @@
         <v>43.574999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -10559,7 +10667,7 @@
         <v>16.125</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -10595,7 +10703,7 @@
         <v>3.6749999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -10631,7 +10739,7 @@
         <v>-0.27500000000000036</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -10667,7 +10775,7 @@
         <v>1.7750000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -10703,7 +10811,7 @@
         <v>6.8250000000000011</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -10739,7 +10847,7 @@
         <v>16.375</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -10775,7 +10883,7 @@
         <v>29.925000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15</v>
       </c>
@@ -10811,7 +10919,7 @@
         <v>60.975000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
@@ -10847,7 +10955,7 @@
         <v>91.025000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>17</v>
       </c>
@@ -10883,7 +10991,7 @@
         <v>120.575</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>18</v>
       </c>
@@ -10919,7 +11027,7 @@
         <v>161.625</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>19</v>
       </c>
@@ -10955,7 +11063,7 @@
         <v>208.67500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
       </c>
